--- a/biology/Zoologie/Argonectes/Argonectes.xlsx
+++ b/biology/Zoologie/Argonectes/Argonectes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Argonectes est un genre de poissons téléostéens de la famille des Hemiodontidae (ordre des Characiformes).
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (5 juillet 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (5 juillet 2023) :
 Argonectes longiceps (Kner, 1858)
 Argonectes robertsi Langeani, 1999</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Argonectes Böhlke (d) &amp; Myers[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Argonectes Böhlke (d) &amp; Myers.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Argonectes, dérive du grec ancien ἀργός, argós, « Blanc, brillant, vif, rapide », et νηκτός, nêktós, « qui nage ». Ce nom n'est pas complétement expliqué mais pourrait faire référence aux marques noires particulièrement frappantes sur les branchies d’Argonectes longiceps[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Argonectes, dérive du grec ancien ἀργός, argós, « Blanc, brillant, vif, rapide », et νηκτός, nêktós, « qui nage ». Ce nom n'est pas complétement expliqué mais pourrait faire référence aux marques noires particulièrement frappantes sur les branchies d’Argonectes longiceps.
 </t>
         </is>
       </c>
